--- a/biology/Mycologie/Malaxis/Malaxis.xlsx
+++ b/biology/Mycologie/Malaxis/Malaxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malaxis est un genre de plantes à fleurs de la famille des Orchidées.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Attention : liste comprenant de nombreux synonymes.
-Selon Catalogue of Life                                   (23 décembre 2018)[2] :
+Selon Catalogue of Life                                   (23 décembre 2018) :
 Malaxis abieticola Salazar &amp; Soto Arenas
 Malaxis acianthoides (Schltr.) Ames
 Malaxis adenotropa R.González, Lizb.Hern. &amp; E.Ramírez
@@ -682,13 +696,13 @@
 Malaxis xerophila Salazar &amp; L.I.Cabrera
 Malaxis yanganensis Dodson
 Malaxis zempoalensis López-Ferr. &amp; Espejo
-Selon GRIN            (23 décembre 2018)[3] :
+Selon GRIN            (23 décembre 2018) :
 Malaxis calophylla (Rchb. f.) Kuntze
 Malaxis commelinifolia (Zoll. &amp; Moritzi) Kuntze
 Malaxis muscifera (Lindl.) Kuntze
 Malaxis paludosa (L.) Sw.
 Malaxis unifolia Michx.
-Selon ITIS      (23 décembre 2018)[4] :
+Selon ITIS      (23 décembre 2018) :
 Malaxis abieticola Salazar &amp; Soto Arenas
 Malaxis bayardii Fernald
 Malaxis brachystachys (Rchb. f.) Kuntze
@@ -702,7 +716,7 @@
 Malaxis spicata Sw.
 Malaxis unifolia Michx.
 Malaxis wendtii Salazar
-Selon NCBI  (23 décembre 2018)[5] :
+Selon NCBI  (23 décembre 2018) :
 Malaxis boninensis
 Malaxis brachyrrhynchos
 Malaxis carpinterae
@@ -729,7 +743,7 @@
 Malaxis unifolia
 Malaxis weberbaueriana
 Malaxis zempoalensis
-Selon The Plant List            (23 décembre 2018)[6] :
+Selon The Plant List            (23 décembre 2018) :
 Malaxis abieticola Salazar &amp; Soto Arenas
 Malaxis acianthoides (Schltr.) Ames
 Malaxis adenotropa R.González, Lizb.Hern. &amp; E.Ramírez
@@ -913,7 +927,7 @@
 Malaxis xerophila Salazar &amp; L.I.Cabrera
 Malaxis yanganensis Dodson
 Malaxis zempoalensis López-Ferr. &amp; Espejo
-Selon Tropicos                                           (23 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Malaxis abieticola Salazar &amp; Soto Arenas
 Malaxis acianthoides (Schltr.) Ames
 Malaxis acuminata D. Don
@@ -1432,7 +1446,8 @@
 Malaxis shuicae S.S. Ying
 Malaxis siamensis (Rolfe ex Downie) Seidenf. &amp; Smitin.
 Malaxis sichuanica Tang &amp; F.T. Wang ex S.C. Chen
-Malaxis sikkimensis (Lindl</t>
+Malaxis sikkimensis (Lindl.) Rchb. f.
+Malaxi</t>
         </is>
       </c>
     </row>
